--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2627937.953387038</v>
+        <v>2629698.483689823</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>174.0863967382249</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.7703497861775</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>185.9821691363349</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.0177450887256</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.8885184393138</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>175.7821542455729</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>284.8637845980398</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>194.9747007711218</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614511</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059661338</v>
+        <v>18.47335059662313</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>187.1093420745339</v>
+        <v>238.6785596856863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.8410052537962</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.384271781984</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>87.2651949615379</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>169.5153072244331</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.3587892151038</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>320.3587892151038</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>320.3587892151038</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>320.3587892151038</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>313.4132884659003</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822819</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822819</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822819</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822819</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.5403919905177</v>
+        <v>491.0191073156138</v>
       </c>
       <c r="C3" t="n">
-        <v>43.0873627093907</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0873627093907</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>43.0873627093907</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>43.0873627093907</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>43.0873627093907</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>43.0873627093907</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>46.96951069551308</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6535314649673</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>268.397955125264</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>503.6022960313624</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>713.6562631339674</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810725</v>
+        <v>866.9947431006358</v>
       </c>
       <c r="W3" t="n">
-        <v>801.3675279810725</v>
+        <v>866.9947431006358</v>
       </c>
       <c r="X3" t="n">
-        <v>593.5160277755397</v>
+        <v>866.9947431006358</v>
       </c>
       <c r="Y3" t="n">
-        <v>385.7557290105858</v>
+        <v>659.2344443356819</v>
       </c>
     </row>
     <row r="4">
@@ -4473,37 +4473,37 @@
         <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4521,16 +4521,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>813.4234542598375</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>558.7389660539507</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W4" t="n">
-        <v>558.7389660539507</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X4" t="n">
-        <v>558.7389660539507</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="Y4" t="n">
         <v>337.9463869104205</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4609,10 +4609,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>501.322152659818</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D6" t="n">
         <v>326.869123378691</v>
@@ -4634,34 +4634,34 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>287.851233131345</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278689</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>877.2977884448399</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>669.537489679886</v>
       </c>
     </row>
     <row r="7">
@@ -4713,34 +4713,34 @@
         <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>726.5262874280761</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>357.5637704876644</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>69.82257392398775</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398775</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478427</v>
+        <v>62.87707317478447</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467161</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607402</v>
+        <v>442.1757437607425</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045904</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209579</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.35653055019</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661155</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342774</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342774</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999203</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729089</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.26545946801</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.126127492198</v>
+        <v>1973.47928617392</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010691</v>
+        <v>929.5097208010791</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199421</v>
+        <v>755.0566915199521</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586908</v>
+        <v>606.1222818587008</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532353</v>
+        <v>446.8848268532453</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801203</v>
+        <v>300.3502688801303</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763085</v>
+        <v>163.6480708763185</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530444476</v>
+        <v>69.87120530445482</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637182</v>
+        <v>113.4887579637188</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148167</v>
+        <v>506.4581980381353</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716115</v>
+        <v>800.9941814716167</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945912</v>
+        <v>1164.060649945918</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.14505241848</v>
+        <v>1551.145052418487</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405868</v>
+        <v>1883.031862405877</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.34536178903</v>
+        <v>2445.345361789039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342774</v>
+        <v>2560.562760342784</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.82628025169</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685339</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751568</v>
+        <v>2002.726321751578</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519825</v>
+        <v>1767.574213519835</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791624</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586091</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821137</v>
+        <v>1097.725057821147</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.6442778688803</v>
+        <v>220.1474381347626</v>
       </c>
       <c r="C10" t="n">
-        <v>620.7080949409734</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7080949409734</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409734</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473601</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685548</v>
+        <v>51.21125520685569</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380105</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676559</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368907</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904017</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.63564010161</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931088</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616496</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477359</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.769810048537</v>
+        <v>1394.679691249397</v>
       </c>
       <c r="V10" t="n">
-        <v>1192.08532184265</v>
+        <v>1139.99520304351</v>
       </c>
       <c r="W10" t="n">
-        <v>1192.08532184265</v>
+        <v>850.5780330065497</v>
       </c>
       <c r="X10" t="n">
-        <v>1192.08532184265</v>
+        <v>622.5884821085324</v>
       </c>
       <c r="Y10" t="n">
-        <v>971.29274269912</v>
+        <v>401.7959029650023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6800663848328</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560535</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718124</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,10 +5284,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>984.5772922261141</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>815.6411092982072</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>665.5244698858714</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>517.6113763034783</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>370.7214288055679</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.372910063109</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="17">
@@ -5503,16 +5503,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,19 +5521,19 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,10 +5828,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
         <v>352.5519571452613</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,16 +6080,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0500279773693</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,13 +7192,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,19 +7429,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>28.18495819153195</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915893</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>26.13373767211351</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446527</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>45.78351343583191</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>210.4772158821385</v>
       </c>
       <c r="L9" t="n">
-        <v>210.4772158821357</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348534</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>31.68313303847268</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>45.99097492813765</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>78.25894333073094</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>795199.5753217502</v>
+        <v>795199.5753217501</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>800450.8642794276</v>
+        <v>800450.8642794277</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107152</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>777158.3171107153</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107154</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
@@ -26355,7 +26355,7 @@
         <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580766</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606958</v>
+        <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101712</v>
+        <v>95270.23779101772</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501123</v>
+        <v>140465.2517501116</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179347</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26447,13 +26447,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756788</v>
+        <v>92902.86757567899</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-337529.7335230525</v>
       </c>
       <c r="C6" t="n">
-        <v>342558.2470681406</v>
+        <v>342558.2470681402</v>
       </c>
       <c r="D6" t="n">
-        <v>32785.28890755854</v>
+        <v>32785.28890755672</v>
       </c>
       <c r="E6" t="n">
-        <v>25171.10636125171</v>
+        <v>25483.74769017567</v>
       </c>
       <c r="F6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508683</v>
       </c>
       <c r="G6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="H6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="I6" t="n">
-        <v>533080.3384219476</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="J6" t="n">
-        <v>464081.1840028334</v>
+        <v>464393.8253317543</v>
       </c>
       <c r="K6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="L6" t="n">
-        <v>437810.1006309302</v>
+        <v>438122.7419598507</v>
       </c>
       <c r="M6" t="n">
-        <v>400362.3627264778</v>
+        <v>400675.0040553996</v>
       </c>
       <c r="N6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="O6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="P6" t="n">
-        <v>533080.3384219473</v>
+        <v>533392.9797508685</v>
       </c>
     </row>
   </sheetData>
@@ -26697,16 +26697,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562781</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856936</v>
+        <v>640.1406900856961</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933026</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788932</v>
+        <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841874</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013955</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841876</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013955</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841874</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013955</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>238.7477779074851</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.1832933522298</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>22.15145421532808</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>46.81841801309039</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>47.24088541395187</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>24.69613491278096</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>169.3614049543568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>29.99083095790462</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>69.81925702264311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465065</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>11.68986229356798</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164539137</v>
+        <v>1.776449164529225</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>99.11784769577045</v>
+        <v>47.54863008461814</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885549</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546664</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972526</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776318</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354917</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359926</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525063</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.435619230788</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983009</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542121</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864746</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140453</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4312864994415</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508438</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436925</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035136</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026256</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079421</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502161</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571271</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617156</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152203</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519073</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947581</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463696</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204786</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366391</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133919</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.132127706541903</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415869</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772514</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490118</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.931664102312</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462344</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004625</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939799</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307398</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658771</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942736</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650315</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>153.9723775119807</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,31 +32080,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305184</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>473.8581708471796</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352321</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>397.4049812900381</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709962</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.13373767211372</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966408</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204529</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>194.0102040017882</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>197.7888359819415</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705663</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313375</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655045</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087199</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559154</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091013</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430314</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797626</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234244</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127545</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758571</v>
+        <v>396.9388283579964</v>
       </c>
       <c r="L9" t="n">
-        <v>507.9883102593886</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396972</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931887</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074629</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>567.993433720365</v>
+        <v>567.9934337203659</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603481</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787329</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513686</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009328</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641526</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.788131425463</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186646</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228553</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27.13475084531405</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>342.5164587638463</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,13 +35816,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066288</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132138</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>259.5635423156791</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
